--- a/data/trans_orig/P44AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4B6473-4383-4E13-979A-8C54BE152857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52C301B-4F84-4992-B8F1-241E851F8169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2AAA60-FFA8-483D-83BF-21E243B51A9A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A6AB8A-E2B8-443A-B7DF-D746799A1BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="291">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -106,19 +106,19 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>51,33%</t>
@@ -130,427 +130,427 @@
     <t>37,18%</t>
   </si>
   <si>
-    <t>11,79%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>15,73%</t>
@@ -562,10 +562,10 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -580,97 +580,100 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>23,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>13,18%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
@@ -688,16 +691,16 @@
     <t>40,45%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>41,27%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>98,05%</t>
@@ -709,16 +712,16 @@
     <t>59,55%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>58,73%</t>
+    <t>57,96%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -733,55 +736,55 @@
     <t>51,85%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>56,23%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>48,15%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>2,25%</t>
@@ -796,52 +799,55 @@
     <t>62,92%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>53,22%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>41,88%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -856,55 +862,55 @@
     <t>37,77%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>62,23%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420F116E-DE76-4F33-873D-E8EAF821134F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75E672-43DD-41B0-A3A2-ADE7BBD4EEF7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2961,10 +2967,10 @@
         <v>108</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
@@ -2973,13 +2979,13 @@
         <v>30274</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3000,13 @@
         <v>9215</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3009,13 +3015,13 @@
         <v>6284</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3024,13 +3030,13 @@
         <v>15499</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3081,7 +3087,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3143,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5966B06F-EB2F-406C-BB4F-8A3008E97547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1BB108-92F6-467B-8A9B-5C6605893243}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3970,7 +3976,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3998,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4025,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,7 +4071,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>43</v>
@@ -4093,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>43</v>
@@ -4117,7 +4123,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4145,7 +4151,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>1166</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4226,13 +4232,13 @@
         <v>2151</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4241,13 +4247,13 @@
         <v>3317</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4268,13 @@
         <v>4459</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4277,13 +4283,13 @@
         <v>6164</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4292,13 +4298,13 @@
         <v>10624</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4319,13 @@
         <v>1927</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4328,13 +4334,13 @@
         <v>1045</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4343,13 +4349,13 @@
         <v>2973</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4376,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4468,13 +4474,13 @@
         <v>1842</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4483,13 +4489,13 @@
         <v>3672</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4498,13 +4504,13 @@
         <v>5514</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4525,13 @@
         <v>11229</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -4534,13 +4540,13 @@
         <v>6480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -4848,7 +4854,7 @@
         <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -4857,13 +4863,13 @@
         <v>11134</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4893,13 +4899,13 @@
         <v>1205</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4908,13 +4914,13 @@
         <v>1205</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +4976,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +4998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69C3AC-89C5-4839-9FF7-4D27F70EB910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4BE05B-2121-4FB4-977B-03C7C657197D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5009,7 +5015,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5833,7 +5839,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5854,13 @@
         <v>1103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5863,13 +5869,13 @@
         <v>2182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5878,13 +5884,13 @@
         <v>3285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,10 +5905,10 @@
         <v>55313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>28</v>
@@ -5914,13 +5920,13 @@
         <v>3213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5929,10 +5935,10 @@
         <v>58527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
@@ -5986,7 +5992,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,7 +6066,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6075,7 +6081,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6090,7 +6096,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6111,13 @@
         <v>17402</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -6120,13 +6126,13 @@
         <v>13977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -6135,13 +6141,13 @@
         <v>31379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6162,13 @@
         <v>16158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6171,13 +6177,13 @@
         <v>8264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -6186,13 +6192,13 @@
         <v>24422</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6219,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6228,7 +6234,7 @@
         <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6243,7 +6249,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6323,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6332,7 +6338,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6347,7 +6353,7 @@
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6368,13 @@
         <v>38736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7">
         <v>55</v>
@@ -6377,13 +6383,13 @@
         <v>32381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -6392,13 +6398,13 @@
         <v>71117</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6419,13 @@
         <v>22825</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -6428,13 +6434,13 @@
         <v>23332</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -6443,13 +6449,13 @@
         <v>46157</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6476,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6485,7 +6491,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6500,7 +6506,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6589,7 +6595,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6604,7 +6610,7 @@
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6625,13 @@
         <v>57241</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -6634,13 +6640,13 @@
         <v>48540</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M35" s="7">
         <v>151</v>
@@ -6649,13 +6655,13 @@
         <v>105782</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6676,13 @@
         <v>94297</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -6685,13 +6691,13 @@
         <v>34809</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -6700,13 +6706,13 @@
         <v>129105</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,7 +6733,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6742,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6757,7 +6763,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +6819,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44AS2-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F52C301B-4F84-4992-B8F1-241E851F8169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F11141-23E3-4E12-BF89-B455938CF49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A6AB8A-E2B8-443A-B7DF-D746799A1BFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0861AD4-30DE-4D26-B383-319803DD06AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="289">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -109,16 +109,16 @@
     <t>12,56%</t>
   </si>
   <si>
-    <t>87,72%</t>
+    <t>87,47%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
   </si>
   <si>
     <t>51,33%</t>
@@ -130,19 +130,19 @@
     <t>37,18%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>48,67%</t>
@@ -151,7 +151,7 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>61,51%</t>
+    <t>54,48%</t>
   </si>
   <si>
     <t>24,34%</t>
@@ -160,7 +160,7 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>57,19%</t>
+    <t>54,71%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -178,31 +178,28 @@
     <t>10,0%</t>
   </si>
   <si>
-    <t>40,3%</t>
+    <t>49,97%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
     <t>23,91%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>54,17%</t>
+    <t>52,42%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>34,84%</t>
@@ -214,16 +211,16 @@
     <t>56,95%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>59,79%</t>
+    <t>50,85%</t>
   </si>
   <si>
     <t>17,33%</t>
@@ -238,7 +235,7 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>42,29%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -256,73 +253,73 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>62,71%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>37,29%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -334,16 +331,16 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>16,15%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>19,78%</t>
@@ -352,58 +349,55 @@
     <t>10,44%</t>
   </si>
   <si>
-    <t>33,12%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>80,84%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>62,59%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
+    <t>53,46%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -415,7 +409,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2015 (Tasa respuesta: 0,72%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2016 (Tasa respuesta: 0,72%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -427,70 +421,70 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>59,77%</t>
+    <t>65,47%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>62,55%</t>
+    <t>62,9%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>59,05%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>69,19%</t>
+    <t>67,65%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>49,36%</t>
+    <t>49,33%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -499,73 +493,76 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>37,99%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>41,77%</t>
+    <t>48,36%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -574,106 +571,103 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>44,74%</t>
+    <t>43,44%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>20,69%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>23,11%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 2 en 2023 (Tasa respuesta: 2,96%)</t>
@@ -1322,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75E672-43DD-41B0-A3A2-ADE7BBD4EEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F62B566-BC23-44DB-A127-A9D90B389F50}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2405,7 +2399,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2414,13 +2408,13 @@
         <v>3919</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2429,13 @@
         <v>7235</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2450,13 +2444,13 @@
         <v>2099</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -2465,13 +2459,13 @@
         <v>9335</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2480,13 @@
         <v>2093</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2501,13 +2495,13 @@
         <v>1044</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2516,13 +2510,13 @@
         <v>3138</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,7 +2537,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2558,7 +2552,7 @@
         <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2573,7 +2567,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2623,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2656,13 +2650,13 @@
         <v>3018</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2671,13 +2665,13 @@
         <v>3018</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2686,13 @@
         <v>8508</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2707,13 +2701,13 @@
         <v>7049</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2722,13 +2716,13 @@
         <v>15558</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2737,13 @@
         <v>5060</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2758,13 +2752,13 @@
         <v>4172</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -2773,13 +2767,13 @@
         <v>9232</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2809,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2830,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2892,13 @@
         <v>1037</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -2913,13 +2907,13 @@
         <v>10250</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -2928,13 +2922,13 @@
         <v>11287</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2943,13 @@
         <v>17919</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -2964,13 +2958,13 @@
         <v>12355</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
@@ -2979,13 +2973,13 @@
         <v>30274</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2994,13 @@
         <v>9215</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3015,13 +3009,13 @@
         <v>6284</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3030,13 +3024,13 @@
         <v>15499</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3072,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3087,7 +3081,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,7 +3137,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1BB108-92F6-467B-8A9B-5C6605893243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CFB6D7-AE67-453F-AB38-EAAC5DFBB2CF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3176,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3976,7 +3970,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4004,7 +3998,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4019,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4053,7 +4047,7 @@
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4065,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>43</v>
@@ -4099,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>43</v>
@@ -4123,7 +4117,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4151,7 +4145,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>1166</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4232,13 +4226,13 @@
         <v>2151</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4247,13 +4241,13 @@
         <v>3317</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4262,13 @@
         <v>4459</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4283,13 +4277,13 @@
         <v>6164</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4298,13 +4292,13 @@
         <v>10624</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4313,13 @@
         <v>1927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4334,13 +4328,13 @@
         <v>1045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4349,13 +4343,13 @@
         <v>2973</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4370,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4406,7 +4400,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4456,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4474,13 +4468,13 @@
         <v>1842</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4489,13 +4483,13 @@
         <v>3672</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4504,13 +4498,13 @@
         <v>5514</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4519,13 @@
         <v>11229</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -4540,13 +4534,13 @@
         <v>6480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -4555,13 +4549,13 @@
         <v>17709</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4570,13 @@
         <v>3773</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -4591,13 +4585,13 @@
         <v>2120</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4606,13 +4600,13 @@
         <v>5893</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4627,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4642,13 +4636,13 @@
         <v>1205</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4657,13 +4651,13 @@
         <v>1205</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4725,13 @@
         <v>3008</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -4746,13 +4740,13 @@
         <v>5823</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -4761,13 +4755,13 @@
         <v>8830</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>15687</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -4797,13 +4791,13 @@
         <v>12645</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -4812,13 +4806,13 @@
         <v>28333</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4827,13 @@
         <v>7968</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -4848,13 +4842,13 @@
         <v>3166</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -4863,13 +4857,13 @@
         <v>11134</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4899,13 +4893,13 @@
         <v>1205</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4914,13 +4908,13 @@
         <v>1205</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4970,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4998,7 +4992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4BE05B-2121-4FB4-977B-03C7C657197D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F4694-549E-406C-A3CC-51BAF4C6581E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5015,7 +5009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5809,7 +5803,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5839,7 +5833,7 @@
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>1103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5869,13 +5863,13 @@
         <v>2182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5884,13 +5878,13 @@
         <v>3285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,10 +5899,10 @@
         <v>55313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>28</v>
@@ -5920,13 +5914,13 @@
         <v>3213</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -5935,10 +5929,10 @@
         <v>58527</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
@@ -5962,7 +5956,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5992,7 +5986,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6081,7 +6075,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6096,7 +6090,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6105,13 @@
         <v>17402</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -6126,13 +6120,13 @@
         <v>13977</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -6141,13 +6135,13 @@
         <v>31379</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6156,13 @@
         <v>16158</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6177,13 +6171,13 @@
         <v>8264</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -6192,13 +6186,13 @@
         <v>24422</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,7 +6213,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6234,7 +6228,7 @@
         <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6249,7 +6243,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,7 +6299,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6323,7 +6317,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6338,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6353,7 +6347,7 @@
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6362,13 @@
         <v>38736</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H30" s="7">
         <v>55</v>
@@ -6383,13 +6377,13 @@
         <v>32381</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -6398,13 +6392,13 @@
         <v>71117</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6413,13 @@
         <v>22825</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -6434,13 +6428,13 @@
         <v>23332</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -6449,13 +6443,13 @@
         <v>46157</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6470,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6491,7 +6485,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6506,7 +6500,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6595,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6610,7 +6604,7 @@
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6619,13 @@
         <v>57241</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -6640,13 +6634,13 @@
         <v>48540</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M35" s="7">
         <v>151</v>
@@ -6655,13 +6649,13 @@
         <v>105782</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6670,13 @@
         <v>94297</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -6691,13 +6685,13 @@
         <v>34809</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -6706,13 +6700,13 @@
         <v>129105</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6727,7 @@
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6748,7 +6742,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6763,7 +6757,7 @@
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,7 +6813,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
